--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema3a-Nrp2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema3a-Nrp2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.939710371387051</v>
+        <v>1.026972333333333</v>
       </c>
       <c r="H2">
-        <v>0.939710371387051</v>
+        <v>3.080917</v>
       </c>
       <c r="I2">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="J2">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.8875426264426</v>
+        <v>31.632955</v>
       </c>
       <c r="N2">
-        <v>30.8875426264426</v>
+        <v>94.898865</v>
       </c>
       <c r="O2">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="P2">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="Q2">
-        <v>29.02534415272774</v>
+        <v>32.48616960657834</v>
       </c>
       <c r="R2">
-        <v>29.02534415272774</v>
+        <v>292.375526459205</v>
       </c>
       <c r="S2">
-        <v>0.1134060397764899</v>
+        <v>0.1016340042468538</v>
       </c>
       <c r="T2">
-        <v>0.1134060397764899</v>
+        <v>0.1016340042468538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.939710371387051</v>
+        <v>1.026972333333333</v>
       </c>
       <c r="H3">
-        <v>0.939710371387051</v>
+        <v>3.080917</v>
       </c>
       <c r="I3">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="J3">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.523992134870291</v>
+        <v>8.622273333333332</v>
       </c>
       <c r="N3">
-        <v>8.523992134870291</v>
+        <v>25.86682</v>
       </c>
       <c r="O3">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="P3">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="Q3">
-        <v>8.010083814759263</v>
+        <v>8.854836163771111</v>
       </c>
       <c r="R3">
-        <v>8.010083814759263</v>
+        <v>79.69352547393999</v>
       </c>
       <c r="S3">
-        <v>0.03129650690547412</v>
+        <v>0.02770263367989282</v>
       </c>
       <c r="T3">
-        <v>0.03129650690547412</v>
+        <v>0.02770263367989282</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.939710371387051</v>
+        <v>1.026972333333333</v>
       </c>
       <c r="H4">
-        <v>0.939710371387051</v>
+        <v>3.080917</v>
       </c>
       <c r="I4">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="J4">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.87539424551</v>
+        <v>18.70876033333333</v>
       </c>
       <c r="N4">
-        <v>16.87539424551</v>
+        <v>56.12628100000001</v>
       </c>
       <c r="O4">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="P4">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="Q4">
-        <v>15.85798299375111</v>
+        <v>19.21337925329745</v>
       </c>
       <c r="R4">
-        <v>15.85798299375111</v>
+        <v>172.920413279677</v>
       </c>
       <c r="S4">
-        <v>0.06195933597552981</v>
+        <v>0.06010966181222619</v>
       </c>
       <c r="T4">
-        <v>0.06195933597552981</v>
+        <v>0.0601096618122262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.939710371387051</v>
+        <v>1.026972333333333</v>
       </c>
       <c r="H5">
-        <v>0.939710371387051</v>
+        <v>3.080917</v>
       </c>
       <c r="I5">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="J5">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.89641046688611</v>
+        <v>4.297619333333333</v>
       </c>
       <c r="N5">
-        <v>2.89641046688611</v>
+        <v>12.892858</v>
       </c>
       <c r="O5">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="P5">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="Q5">
-        <v>2.721786955526889</v>
+        <v>4.413536154531778</v>
       </c>
       <c r="R5">
-        <v>2.721786955526889</v>
+        <v>39.721825390786</v>
       </c>
       <c r="S5">
-        <v>0.01063439861789221</v>
+        <v>0.0138078867932307</v>
       </c>
       <c r="T5">
-        <v>0.01063439861789221</v>
+        <v>0.0138078867932307</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.35308049170328</v>
+        <v>1.358031333333334</v>
       </c>
       <c r="H6">
-        <v>1.35308049170328</v>
+        <v>4.074094000000001</v>
       </c>
       <c r="I6">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="J6">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.8875426264426</v>
+        <v>31.632955</v>
       </c>
       <c r="N6">
-        <v>30.8875426264426</v>
+        <v>94.898865</v>
       </c>
       <c r="O6">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="P6">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="Q6">
-        <v>41.79333136449297</v>
+        <v>42.95854405592334</v>
       </c>
       <c r="R6">
-        <v>41.79333136449297</v>
+        <v>386.62689650331</v>
       </c>
       <c r="S6">
-        <v>0.1632923342501795</v>
+        <v>0.1343971573716791</v>
       </c>
       <c r="T6">
-        <v>0.1632923342501795</v>
+        <v>0.1343971573716791</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.35308049170328</v>
+        <v>1.358031333333334</v>
       </c>
       <c r="H7">
-        <v>1.35308049170328</v>
+        <v>4.074094000000001</v>
       </c>
       <c r="I7">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="J7">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.523992134870291</v>
+        <v>8.622273333333332</v>
       </c>
       <c r="N7">
-        <v>8.523992134870291</v>
+        <v>25.86682</v>
       </c>
       <c r="O7">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="P7">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="Q7">
-        <v>11.53364746912518</v>
+        <v>11.70931735123111</v>
       </c>
       <c r="R7">
-        <v>11.53364746912518</v>
+        <v>105.38385616108</v>
       </c>
       <c r="S7">
-        <v>0.04506355813626763</v>
+        <v>0.03663296793112222</v>
       </c>
       <c r="T7">
-        <v>0.04506355813626763</v>
+        <v>0.03663296793112222</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.35308049170328</v>
+        <v>1.358031333333334</v>
       </c>
       <c r="H8">
-        <v>1.35308049170328</v>
+        <v>4.074094000000001</v>
       </c>
       <c r="I8">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="J8">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.87539424551</v>
+        <v>18.70876033333333</v>
       </c>
       <c r="N8">
-        <v>16.87539424551</v>
+        <v>56.12628100000001</v>
       </c>
       <c r="O8">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="P8">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="Q8">
-        <v>22.83376674340137</v>
+        <v>25.40708274049045</v>
       </c>
       <c r="R8">
-        <v>22.83376674340137</v>
+        <v>228.6637446644141</v>
       </c>
       <c r="S8">
-        <v>0.08921468927030494</v>
+        <v>0.07948685814360461</v>
       </c>
       <c r="T8">
-        <v>0.08921468927030494</v>
+        <v>0.07948685814360462</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.35308049170328</v>
+        <v>1.358031333333334</v>
       </c>
       <c r="H9">
-        <v>1.35308049170328</v>
+        <v>4.074094000000001</v>
       </c>
       <c r="I9">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="J9">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.89641046688611</v>
+        <v>4.297619333333333</v>
       </c>
       <c r="N9">
-        <v>2.89641046688611</v>
+        <v>12.892858</v>
       </c>
       <c r="O9">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="P9">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="Q9">
-        <v>3.919076498708784</v>
+        <v>5.836301713405779</v>
       </c>
       <c r="R9">
-        <v>3.919076498708784</v>
+        <v>52.52671542065201</v>
       </c>
       <c r="S9">
-        <v>0.01531237469437229</v>
+        <v>0.01825905363142871</v>
       </c>
       <c r="T9">
-        <v>0.01531237469437229</v>
+        <v>0.01825905363142871</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.03176713611504</v>
+        <v>2.667646666666666</v>
       </c>
       <c r="H10">
-        <v>2.03176713611504</v>
+        <v>8.002939999999999</v>
       </c>
       <c r="I10">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="J10">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.8875426264426</v>
+        <v>31.632955</v>
       </c>
       <c r="N10">
-        <v>30.8875426264426</v>
+        <v>94.898865</v>
       </c>
       <c r="O10">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="P10">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="Q10">
-        <v>62.7562940237585</v>
+        <v>84.38554696256665</v>
       </c>
       <c r="R10">
-        <v>62.7562940237585</v>
+        <v>759.4699226630999</v>
       </c>
       <c r="S10">
-        <v>0.2451975328469831</v>
+        <v>0.2640028400464264</v>
       </c>
       <c r="T10">
-        <v>0.2451975328469831</v>
+        <v>0.2640028400464264</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.03176713611504</v>
+        <v>2.667646666666666</v>
       </c>
       <c r="H11">
-        <v>2.03176713611504</v>
+        <v>8.002939999999999</v>
       </c>
       <c r="I11">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="J11">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.523992134870291</v>
+        <v>8.622273333333332</v>
       </c>
       <c r="N11">
-        <v>8.523992134870291</v>
+        <v>25.86682</v>
       </c>
       <c r="O11">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="P11">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="Q11">
-        <v>17.31876708813254</v>
+        <v>23.00117871675555</v>
       </c>
       <c r="R11">
-        <v>17.31876708813254</v>
+        <v>207.0106084507999</v>
       </c>
       <c r="S11">
-        <v>0.067666821759009</v>
+        <v>0.07195991166985719</v>
       </c>
       <c r="T11">
-        <v>0.067666821759009</v>
+        <v>0.07195991166985719</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.03176713611504</v>
+        <v>2.667646666666666</v>
       </c>
       <c r="H12">
-        <v>2.03176713611504</v>
+        <v>8.002939999999999</v>
       </c>
       <c r="I12">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="J12">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.87539424551</v>
+        <v>18.70876033333333</v>
       </c>
       <c r="N12">
-        <v>16.87539424551</v>
+        <v>56.12628100000001</v>
       </c>
       <c r="O12">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="P12">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="Q12">
-        <v>34.28687143701208</v>
+        <v>49.90836214068221</v>
       </c>
       <c r="R12">
-        <v>34.28687143701208</v>
+        <v>449.17525926614</v>
       </c>
       <c r="S12">
-        <v>0.1339635556270146</v>
+        <v>0.1561398820232864</v>
       </c>
       <c r="T12">
-        <v>0.1339635556270146</v>
+        <v>0.1561398820232864</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.03176713611504</v>
+        <v>2.667646666666666</v>
       </c>
       <c r="H13">
-        <v>2.03176713611504</v>
+        <v>8.002939999999999</v>
       </c>
       <c r="I13">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="J13">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.89641046688611</v>
+        <v>4.297619333333333</v>
       </c>
       <c r="N13">
-        <v>2.89641046688611</v>
+        <v>12.892858</v>
       </c>
       <c r="O13">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="P13">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="Q13">
-        <v>5.884831599318818</v>
+        <v>11.46452988916889</v>
       </c>
       <c r="R13">
-        <v>5.884831599318818</v>
+        <v>103.18076900252</v>
       </c>
       <c r="S13">
-        <v>0.02299285214048274</v>
+        <v>0.03586714265039196</v>
       </c>
       <c r="T13">
-        <v>0.02299285214048274</v>
+        <v>0.03586714265039196</v>
       </c>
     </row>
   </sheetData>
